--- a/medicine/Soins infirmiers et profession infirmière/Centre_médical_Wolfson/Centre_médical_Wolfson.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Centre_médical_Wolfson/Centre_médical_Wolfson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_m%C3%A9dical_Wolfson</t>
+          <t>Centre_médical_Wolfson</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Centre Médical Wolfson (en hébreu: מרכז רפואי וולפסון) (translittération : Merkaz Refui Wolfson) est un hôpital dans la ville de Holon, Israël. l'Hôpital Wolfson est dans la région métropolitaine de Tel Aviv, dans le District de Tel-Aviv, dans un quartier où il y a une population de près d'un demi-million d'habitants. Le centre est classé comme le neuvième plus grand hôpital en Israël[1]. Le centre médical a été fondé avec l'aide de la Fondation Wolfson et est nommé en honneur de Lady Edith Specterman Wolfson, l'épouse d'Isaac Wolfson[2].
+Le Centre Médical Wolfson (en hébreu: מרכז רפואי וולפסון) (translittération : Merkaz Refui Wolfson) est un hôpital dans la ville de Holon, Israël. l'Hôpital Wolfson est dans la région métropolitaine de Tel Aviv, dans le District de Tel-Aviv, dans un quartier où il y a une population de près d'un demi-million d'habitants. Le centre est classé comme le neuvième plus grand hôpital en Israël. Le centre médical a été fondé avec l'aide de la Fondation Wolfson et est nommé en honneur de Lady Edith Specterman Wolfson, l'épouse d'Isaac Wolfson.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_m%C3%A9dical_Wolfson</t>
+          <t>Centre_médical_Wolfson</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le centre médical de Holon a été ouvert au public en 1980, à la frontière sud de Tel Aviv - Jaffa. Le centre est passé de 342 lits à plus de 650 en 2007, avec 30 lits supplémentaires pour les patients ambulatoires[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le centre médical de Holon a été ouvert au public en 1980, à la frontière sud de Tel Aviv - Jaffa. Le centre est passé de 342 lits à plus de 650 en 2007, avec 30 lits supplémentaires pour les patients ambulatoires.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Centre_m%C3%A9dical_Wolfson</t>
+          <t>Centre_médical_Wolfson</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Services</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les départements du Centre médical Wolfson sont affiliés à l'école de médecine Sackler, l'Université de Tel-Aviv et supervisent les étudiants universitaires. Le centre emploie plus de 100 médecins qui effectuent plusieurs emplois à l'université et y travaillent en tant que professeurs. Des étudiants proviennent également des États-Unis, du Royaume-Uni, de la Chine, de l'Italie, de l'Éthiopie, du Ghana, de l'Équateur, de la Bulgarie, de l'Honduras et de la République de Géorgie. Le centre médical publie régulièrement des articles académiques dans des revues locales et étrangères[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les départements du Centre médical Wolfson sont affiliés à l'école de médecine Sackler, l'Université de Tel-Aviv et supervisent les étudiants universitaires. Le centre emploie plus de 100 médecins qui effectuent plusieurs emplois à l'université et y travaillent en tant que professeurs. Des étudiants proviennent également des États-Unis, du Royaume-Uni, de la Chine, de l'Italie, de l'Éthiopie, du Ghana, de l'Équateur, de la Bulgarie, de l'Honduras et de la République de Géorgie. Le centre médical publie régulièrement des articles académiques dans des revues locales et étrangères.
 </t>
         </is>
       </c>
